--- a/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_60.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_11_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.83863722150903</v>
+        <v>91.16611680318613</v>
       </c>
       <c r="D2" t="n">
-        <v>17.25246716867781</v>
+        <v>19.73001356145501</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>92.82367088789333</v>
+        <v>90.46469630706575</v>
       </c>
       <c r="D3" t="n">
-        <v>18.83828239451402</v>
+        <v>16.46333535386329</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.73870121798964</v>
+        <v>91.06350278902728</v>
       </c>
       <c r="D4" t="n">
-        <v>18.01924851937205</v>
+        <v>19.36051241916624</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.36908451109588</v>
+        <v>86.43535532278038</v>
       </c>
       <c r="D5" t="n">
-        <v>18.14910523446076</v>
+        <v>17.0652516457781</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.04294647411947</v>
+        <v>88.224630228782</v>
       </c>
       <c r="D6" t="n">
-        <v>19.16253404990142</v>
+        <v>16.9069415627134</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>90.2973399032866</v>
+        <v>85.94115322930524</v>
       </c>
       <c r="D7" t="n">
-        <v>17.09661705942622</v>
+        <v>17.83033235838356</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>86.68452424531201</v>
+        <v>88.10389443493872</v>
       </c>
       <c r="D8" t="n">
-        <v>17.21853796331758</v>
+        <v>17.00607354748141</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.37414079621911</v>
+        <v>85.74044689879193</v>
       </c>
       <c r="D9" t="n">
-        <v>19.4581287777278</v>
+        <v>15.32219535375869</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>87.04465363878099</v>
+        <v>89.40141154566781</v>
       </c>
       <c r="D10" t="n">
-        <v>20.18671408216653</v>
+        <v>17.42773384336515</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.40328868886614</v>
+        <v>83.47808880793821</v>
       </c>
       <c r="D11" t="n">
-        <v>16.09504697108414</v>
+        <v>16.47463628886069</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.84997682700742</v>
+        <v>82.82510838459531</v>
       </c>
       <c r="D12" t="n">
-        <v>18.90070031876984</v>
+        <v>16.01153709614491</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>82.13286191765245</v>
+        <v>83.52890706662122</v>
       </c>
       <c r="D13" t="n">
-        <v>17.08258014819399</v>
+        <v>18.44566680079373</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>82.21170348853452</v>
+        <v>81.60172954592466</v>
       </c>
       <c r="D14" t="n">
-        <v>15.90863267290928</v>
+        <v>16.7509259165762</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.1447303094927</v>
+        <v>78.6088725682353</v>
       </c>
       <c r="D15" t="n">
-        <v>17.27366106085751</v>
+        <v>16.66773935915168</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.76641842948069</v>
+        <v>80.11804326331158</v>
       </c>
       <c r="D16" t="n">
-        <v>15.76326325609145</v>
+        <v>15.94387318438045</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.5691090541473</v>
+        <v>78.06026290177678</v>
       </c>
       <c r="D17" t="n">
-        <v>18.62638734104306</v>
+        <v>16.40919229457722</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.65091727447938</v>
+        <v>73.56478108521331</v>
       </c>
       <c r="D18" t="n">
-        <v>15.37768324846288</v>
+        <v>18.89726525493672</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.19616359390893</v>
+        <v>73.7671641526766</v>
       </c>
       <c r="D19" t="n">
-        <v>18.50009248787796</v>
+        <v>15.80772081861773</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.06749198980687</v>
+        <v>75.38434346292154</v>
       </c>
       <c r="D20" t="n">
-        <v>17.0188327657415</v>
+        <v>17.13090324228727</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>75.93335104050747</v>
+        <v>72.41267423830122</v>
       </c>
       <c r="D21" t="n">
-        <v>16.99612060622672</v>
+        <v>17.64604344556669</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>71.02793844415311</v>
+        <v>71.1040706300155</v>
       </c>
       <c r="D22" t="n">
-        <v>16.54615436877342</v>
+        <v>16.81218144670514</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.49684534043563</v>
+        <v>72.39228164209584</v>
       </c>
       <c r="D23" t="n">
-        <v>17.73567129178242</v>
+        <v>15.65539200713651</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.67613916334209</v>
+        <v>69.96353950751079</v>
       </c>
       <c r="D24" t="n">
-        <v>16.2492319208311</v>
+        <v>14.17751722573037</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.82994691607263</v>
+        <v>67.77720289856097</v>
       </c>
       <c r="D25" t="n">
-        <v>18.38041412880653</v>
+        <v>18.40064915184194</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>70.0364710885804</v>
+        <v>67.24029910433252</v>
       </c>
       <c r="D26" t="n">
-        <v>16.42201901624097</v>
+        <v>15.49639078685284</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.17993011068452</v>
+        <v>67.00675322696567</v>
       </c>
       <c r="D27" t="n">
-        <v>17.77160731142504</v>
+        <v>17.32376607242213</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.65089700898619</v>
+        <v>65.68138042859064</v>
       </c>
       <c r="D28" t="n">
-        <v>16.34106414958152</v>
+        <v>16.31116365859984</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.29250541151031</v>
+        <v>63.94012270381118</v>
       </c>
       <c r="D29" t="n">
-        <v>17.12574180219042</v>
+        <v>15.88766889815545</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>64.86235314890159</v>
+        <v>62.88341826383293</v>
       </c>
       <c r="D30" t="n">
-        <v>16.57094110747342</v>
+        <v>17.09853906997489</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>59.22085733205388</v>
+        <v>62.97697467345881</v>
       </c>
       <c r="D31" t="n">
-        <v>19.48200264121603</v>
+        <v>19.02688027339672</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.08434919720296</v>
+        <v>59.39060505805026</v>
       </c>
       <c r="D32" t="n">
-        <v>16.69483578107061</v>
+        <v>15.65282992517625</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.81762327567085</v>
+        <v>59.15984649641654</v>
       </c>
       <c r="D33" t="n">
-        <v>16.70343813371076</v>
+        <v>16.31336380656948</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.36667738644184</v>
+        <v>57.80559612746487</v>
       </c>
       <c r="D34" t="n">
-        <v>16.15970369441456</v>
+        <v>15.54833015784094</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.52333616240621</v>
+        <v>56.50343586438992</v>
       </c>
       <c r="D35" t="n">
-        <v>17.12128127636685</v>
+        <v>17.5402592651212</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>54.64612249208668</v>
+        <v>57.9884672798385</v>
       </c>
       <c r="D36" t="n">
-        <v>17.80284098322748</v>
+        <v>16.2985766670985</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.21614515403044</v>
+        <v>55.53035529912306</v>
       </c>
       <c r="D37" t="n">
-        <v>17.57638941787545</v>
+        <v>18.19922316242904</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>57.22014086885283</v>
+        <v>54.07459415437236</v>
       </c>
       <c r="D38" t="n">
-        <v>16.97919001928972</v>
+        <v>17.61572939741884</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>56.06881544116106</v>
+        <v>51.15273719121696</v>
       </c>
       <c r="D39" t="n">
-        <v>19.08743021113612</v>
+        <v>18.87338662837381</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.55575685103695</v>
+        <v>51.11830108082553</v>
       </c>
       <c r="D40" t="n">
-        <v>18.82805160799027</v>
+        <v>15.78105028831102</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.40365927905091</v>
+        <v>51.42177753024108</v>
       </c>
       <c r="D41" t="n">
-        <v>16.35078351395032</v>
+        <v>16.96336963646286</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>47.99744503385291</v>
+        <v>50.79672178553703</v>
       </c>
       <c r="D42" t="n">
-        <v>15.54672588251141</v>
+        <v>17.21812493650195</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.78706338605012</v>
+        <v>48.21098417990892</v>
       </c>
       <c r="D43" t="n">
-        <v>17.15367947532598</v>
+        <v>14.39810119081636</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>45.80945011891876</v>
+        <v>44.99509940661449</v>
       </c>
       <c r="D44" t="n">
-        <v>16.01666536564446</v>
+        <v>18.12919777728526</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>43.37003610200987</v>
+        <v>49.81565270481812</v>
       </c>
       <c r="D45" t="n">
-        <v>17.36589492804856</v>
+        <v>16.92288576597167</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>47.59893354529211</v>
+        <v>45.56174727600356</v>
       </c>
       <c r="D46" t="n">
-        <v>16.12555413499991</v>
+        <v>17.9753210713781</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.27663158025398</v>
+        <v>45.7821713080823</v>
       </c>
       <c r="D47" t="n">
-        <v>17.84992334654195</v>
+        <v>13.92021098434148</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.24556101727401</v>
+        <v>41.21825782327043</v>
       </c>
       <c r="D48" t="n">
-        <v>16.382390238282</v>
+        <v>17.84033593929052</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.83232389321903</v>
+        <v>44.15395790460499</v>
       </c>
       <c r="D49" t="n">
-        <v>17.98698285071316</v>
+        <v>17.86773609717791</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.50154099533499</v>
+        <v>41.97013002074079</v>
       </c>
       <c r="D50" t="n">
-        <v>14.91671786498064</v>
+        <v>16.11388687434007</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.65267068047729</v>
+        <v>41.75073192299036</v>
       </c>
       <c r="D51" t="n">
-        <v>17.91356912336371</v>
+        <v>14.55702046931387</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>43.04287836198289</v>
+        <v>40.08785906024385</v>
       </c>
       <c r="D52" t="n">
-        <v>15.63187885310487</v>
+        <v>14.88013996497301</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.50441460662615</v>
+        <v>37.86549327039759</v>
       </c>
       <c r="D53" t="n">
-        <v>17.33138329734179</v>
+        <v>17.31265440781902</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.98710989859234</v>
+        <v>36.56219908527457</v>
       </c>
       <c r="D54" t="n">
-        <v>17.27149340574078</v>
+        <v>16.08389641938792</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.2999613641668</v>
+        <v>36.07493519043349</v>
       </c>
       <c r="D55" t="n">
-        <v>18.33245684252361</v>
+        <v>16.49132194959249</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>34.96667982579955</v>
+        <v>33.56278768561388</v>
       </c>
       <c r="D56" t="n">
-        <v>18.06292633841735</v>
+        <v>17.07385523255839</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>32.56975866904915</v>
+        <v>36.80681490265317</v>
       </c>
       <c r="D57" t="n">
-        <v>16.40164971188225</v>
+        <v>17.1115747703996</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.23775346659151</v>
+        <v>32.81959772922217</v>
       </c>
       <c r="D58" t="n">
-        <v>15.49452266322465</v>
+        <v>15.9726373002488</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.04923055014772</v>
+        <v>30.94891274332817</v>
       </c>
       <c r="D59" t="n">
-        <v>17.36543927927229</v>
+        <v>15.12458977888579</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.11756367723118</v>
+        <v>31.29180110794391</v>
       </c>
       <c r="D60" t="n">
-        <v>15.312984520734</v>
+        <v>14.91425883152562</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.17715854777372</v>
+        <v>33.30617746001698</v>
       </c>
       <c r="D61" t="n">
-        <v>13.98081978676968</v>
+        <v>15.63241221682081</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.62861688666782</v>
+        <v>30.5624730386758</v>
       </c>
       <c r="D62" t="n">
-        <v>17.59597642955566</v>
+        <v>18.11522614069145</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>27.91267560374265</v>
+        <v>29.95513727180592</v>
       </c>
       <c r="D63" t="n">
-        <v>17.62787088692307</v>
+        <v>16.38771895705853</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.5474007407465</v>
+        <v>29.2316503714908</v>
       </c>
       <c r="D64" t="n">
-        <v>17.75276245139709</v>
+        <v>16.44718843934882</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>28.60391168795091</v>
+        <v>27.33859758730814</v>
       </c>
       <c r="D65" t="n">
-        <v>14.81503776867554</v>
+        <v>17.05236280006937</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>27.96050973100139</v>
+        <v>26.39574450153041</v>
       </c>
       <c r="D66" t="n">
-        <v>15.79340292682391</v>
+        <v>16.15103160619192</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.86531571408297</v>
+        <v>25.00201463853035</v>
       </c>
       <c r="D67" t="n">
-        <v>17.02769392441306</v>
+        <v>16.50672061228393</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.65831727727573</v>
+        <v>20.95134271266912</v>
       </c>
       <c r="D68" t="n">
-        <v>16.00743274062823</v>
+        <v>19.26698520768018</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.7725045155094</v>
+        <v>25.3832968072391</v>
       </c>
       <c r="D69" t="n">
-        <v>15.62698620036597</v>
+        <v>16.99341049284412</v>
       </c>
     </row>
   </sheetData>
